--- a/game_excel/heroconvert.xlsx
+++ b/game_excel/heroconvert.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
   <si>
     <t>奖励名称</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>毒液</t>
+  </si>
+  <si>
+    <t>地狱男爵</t>
+  </si>
+  <si>
+    <t>初音</t>
   </si>
 </sst>
 </file>
@@ -603,13 +609,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1305,24 +1311,24 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B42" s="2">
         <v>37</v>
       </c>
       <c r="C42" s="1">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E42" s="2">
-        <v>7500</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2">
         <v>38</v>
@@ -1331,24 +1337,24 @@
         <v>225</v>
       </c>
       <c r="D43" s="1">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E43" s="2">
-        <v>7500</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2">
         <v>39</v>
       </c>
       <c r="C44" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1">
-        <v>3031</v>
+        <v>2058</v>
       </c>
       <c r="E44" s="2">
         <v>7500</v>
@@ -1356,16 +1362,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2">
         <v>40</v>
       </c>
       <c r="C45" s="1">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D45" s="1">
-        <v>3031</v>
+        <v>2058</v>
       </c>
       <c r="E45" s="2">
         <v>7500</v>
@@ -1373,24 +1379,24 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
         <v>41</v>
       </c>
       <c r="C46" s="1">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D46" s="1">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="E46" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2">
         <v>42</v>
@@ -1399,32 +1405,32 @@
         <v>234</v>
       </c>
       <c r="D47" s="1">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="E47" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>43</v>
       </c>
       <c r="C48" s="1">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D48" s="1">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="E48" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>44</v>
@@ -1433,66 +1439,66 @@
         <v>234</v>
       </c>
       <c r="D49" s="1">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="E49" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2">
         <v>45</v>
       </c>
       <c r="C50" s="1">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>3051</v>
+        <v>3033</v>
       </c>
       <c r="E50" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" s="2">
         <v>46</v>
       </c>
       <c r="C51" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D51" s="1">
-        <v>3051</v>
+        <v>3033</v>
       </c>
       <c r="E51" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2">
         <v>47</v>
       </c>
       <c r="C52" s="1">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D52" s="1">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="E52" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2">
         <v>48</v>
@@ -1501,32 +1507,32 @@
         <v>235</v>
       </c>
       <c r="D53" s="1">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="E53" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B54" s="2">
         <v>49</v>
       </c>
       <c r="C54" s="1">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D54" s="1">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="E54" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55" s="2">
         <v>50</v>
@@ -1535,32 +1541,32 @@
         <v>235</v>
       </c>
       <c r="D55" s="1">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="E55" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B56" s="2">
         <v>51</v>
       </c>
       <c r="C56" s="1">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D56" s="1">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="E56" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B57" s="2">
         <v>52</v>
@@ -1569,32 +1575,32 @@
         <v>235</v>
       </c>
       <c r="D57" s="1">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="E57" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B58" s="2">
         <v>53</v>
       </c>
       <c r="C58" s="1">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D58" s="1">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="E58" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B59" s="2">
         <v>54</v>
@@ -1603,32 +1609,32 @@
         <v>235</v>
       </c>
       <c r="D59" s="1">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="E59" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B60" s="2">
         <v>55</v>
       </c>
       <c r="C60" s="1">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D60" s="1">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="E60" s="2">
-        <v>3750</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B61" s="2">
         <v>56</v>
@@ -1637,32 +1643,32 @@
         <v>235</v>
       </c>
       <c r="D61" s="1">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="E61" s="2">
-        <v>3750</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B62" s="2">
         <v>57</v>
       </c>
       <c r="C62" s="1">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D62" s="1">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="E62" s="2">
-        <v>7500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B63" s="2">
         <v>58</v>
@@ -1671,66 +1677,66 @@
         <v>235</v>
       </c>
       <c r="D63" s="1">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="E63" s="2">
-        <v>7500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B64" s="2">
         <v>59</v>
       </c>
       <c r="C64" s="1">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D64" s="1">
-        <v>4031</v>
+        <v>3057</v>
       </c>
       <c r="E64" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B65" s="2">
         <v>60</v>
       </c>
       <c r="C65" s="1">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D65" s="1">
-        <v>4031</v>
+        <v>3057</v>
       </c>
       <c r="E65" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B66" s="2">
         <v>61</v>
       </c>
       <c r="C66" s="1">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D66" s="1">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="E66" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B67" s="2">
         <v>62</v>
@@ -1739,32 +1745,32 @@
         <v>244</v>
       </c>
       <c r="D67" s="1">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="E67" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B68" s="2">
         <v>63</v>
       </c>
       <c r="C68" s="1">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D68" s="1">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="E68" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B69" s="2">
         <v>64</v>
@@ -1773,66 +1779,66 @@
         <v>244</v>
       </c>
       <c r="D69" s="1">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="E69" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B70" s="2">
         <v>65</v>
       </c>
       <c r="C70" s="1">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D70" s="1">
-        <v>4051</v>
+        <v>4033</v>
       </c>
       <c r="E70" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B71" s="2">
         <v>66</v>
       </c>
       <c r="C71" s="1">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D71" s="1">
-        <v>4051</v>
+        <v>4033</v>
       </c>
       <c r="E71" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B72" s="2">
         <v>67</v>
       </c>
       <c r="C72" s="1">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D72" s="1">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="E72" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B73" s="2">
         <v>68</v>
@@ -1841,32 +1847,32 @@
         <v>245</v>
       </c>
       <c r="D73" s="1">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="E73" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B74" s="2">
         <v>69</v>
       </c>
       <c r="C74" s="1">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D74" s="1">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="E74" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B75" s="2">
         <v>70</v>
@@ -1875,32 +1881,32 @@
         <v>245</v>
       </c>
       <c r="D75" s="1">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="E75" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B76" s="2">
         <v>71</v>
       </c>
       <c r="C76" s="1">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D76" s="1">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="E76" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B77" s="2">
         <v>72</v>
@@ -1909,32 +1915,32 @@
         <v>245</v>
       </c>
       <c r="D77" s="1">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="E77" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B78" s="2">
         <v>73</v>
       </c>
       <c r="C78" s="1">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D78" s="1">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="E78" s="2">
-        <v>9375</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B79" s="2">
         <v>74</v>
@@ -1943,32 +1949,32 @@
         <v>245</v>
       </c>
       <c r="D79" s="1">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="E79" s="2">
-        <v>9375</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B80" s="2">
         <v>75</v>
       </c>
       <c r="C80" s="1">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D80" s="1">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="E80" s="2">
-        <v>3750</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B81" s="2">
         <v>76</v>
@@ -1977,66 +1983,66 @@
         <v>245</v>
       </c>
       <c r="D81" s="1">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="E81" s="2">
-        <v>3750</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B82" s="2">
         <v>77</v>
       </c>
       <c r="C82" s="1">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D82" s="1">
-        <v>5031</v>
+        <v>4056</v>
       </c>
       <c r="E82" s="2">
-        <v>12500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B83" s="2">
         <v>78</v>
       </c>
       <c r="C83" s="1">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D83" s="1">
-        <v>5031</v>
+        <v>4056</v>
       </c>
       <c r="E83" s="2">
-        <v>12500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B84" s="2">
         <v>79</v>
       </c>
       <c r="C84" s="1">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D84" s="1">
-        <v>5032</v>
+        <v>5031</v>
       </c>
       <c r="E84" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B85" s="2">
         <v>80</v>
@@ -2045,32 +2051,32 @@
         <v>254</v>
       </c>
       <c r="D85" s="1">
-        <v>5032</v>
+        <v>5031</v>
       </c>
       <c r="E85" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B86" s="2">
         <v>81</v>
       </c>
       <c r="C86" s="1">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D86" s="1">
-        <v>5033</v>
+        <v>5032</v>
       </c>
       <c r="E86" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B87" s="2">
         <v>82</v>
@@ -2079,66 +2085,66 @@
         <v>254</v>
       </c>
       <c r="D87" s="1">
-        <v>5033</v>
+        <v>5032</v>
       </c>
       <c r="E87" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B88" s="2">
         <v>83</v>
       </c>
       <c r="C88" s="1">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D88" s="1">
-        <v>5051</v>
+        <v>5033</v>
       </c>
       <c r="E88" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B89" s="2">
         <v>84</v>
       </c>
       <c r="C89" s="1">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D89" s="1">
-        <v>5051</v>
+        <v>5033</v>
       </c>
       <c r="E89" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B90" s="2">
         <v>85</v>
       </c>
       <c r="C90" s="1">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D90" s="1">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="E90" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B91" s="2">
         <v>86</v>
@@ -2147,32 +2153,32 @@
         <v>255</v>
       </c>
       <c r="D91" s="1">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="E91" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B92" s="2">
         <v>87</v>
       </c>
       <c r="C92" s="1">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D92" s="1">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="E92" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B93" s="2">
         <v>88</v>
@@ -2181,32 +2187,32 @@
         <v>255</v>
       </c>
       <c r="D93" s="1">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="E93" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B94" s="2">
         <v>89</v>
       </c>
       <c r="C94" s="1">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D94" s="1">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="E94" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B95" s="2">
         <v>90</v>
@@ -2215,32 +2221,32 @@
         <v>255</v>
       </c>
       <c r="D95" s="1">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="E95" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B96" s="2">
         <v>91</v>
       </c>
       <c r="C96" s="1">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D96" s="1">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="E96" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B97" s="2">
         <v>92</v>
@@ -2249,32 +2255,32 @@
         <v>255</v>
       </c>
       <c r="D97" s="1">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="E97" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B98" s="2">
         <v>93</v>
       </c>
       <c r="C98" s="1">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D98" s="1">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="E98" s="2">
-        <v>5000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B99" s="2">
         <v>94</v>
@@ -2283,66 +2289,66 @@
         <v>255</v>
       </c>
       <c r="D99" s="1">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="E99" s="2">
-        <v>5000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B100" s="2">
         <v>95</v>
       </c>
       <c r="C100" s="1">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D100" s="1">
-        <v>6031</v>
+        <v>5056</v>
       </c>
       <c r="E100" s="2">
-        <v>7500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B101" s="2">
         <v>96</v>
       </c>
       <c r="C101" s="1">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D101" s="1">
-        <v>6031</v>
+        <v>5056</v>
       </c>
       <c r="E101" s="2">
-        <v>7500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B102" s="2">
         <v>97</v>
       </c>
       <c r="C102" s="1">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D102" s="1">
-        <v>6032</v>
+        <v>6031</v>
       </c>
       <c r="E102" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B103" s="2">
         <v>98</v>
@@ -2351,32 +2357,32 @@
         <v>264</v>
       </c>
       <c r="D103" s="1">
-        <v>6032</v>
+        <v>6031</v>
       </c>
       <c r="E103" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B104" s="2">
         <v>99</v>
       </c>
       <c r="C104" s="1">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D104" s="1">
-        <v>6033</v>
+        <v>6032</v>
       </c>
       <c r="E104" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B105" s="2">
         <v>100</v>
@@ -2385,66 +2391,66 @@
         <v>264</v>
       </c>
       <c r="D105" s="1">
-        <v>6033</v>
+        <v>6032</v>
       </c>
       <c r="E105" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B106" s="2">
         <v>101</v>
       </c>
       <c r="C106" s="1">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D106" s="1">
-        <v>6051</v>
+        <v>6033</v>
       </c>
       <c r="E106" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B107" s="2">
         <v>102</v>
       </c>
       <c r="C107" s="1">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D107" s="1">
-        <v>6051</v>
+        <v>6033</v>
       </c>
       <c r="E107" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B108" s="2">
         <v>103</v>
       </c>
       <c r="C108" s="1">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D108" s="1">
-        <v>6052</v>
+        <v>6051</v>
       </c>
       <c r="E108" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B109" s="2">
         <v>104</v>
@@ -2453,32 +2459,32 @@
         <v>265</v>
       </c>
       <c r="D109" s="1">
-        <v>6052</v>
+        <v>6051</v>
       </c>
       <c r="E109" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B110" s="2">
         <v>105</v>
       </c>
       <c r="C110" s="1">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D110" s="1">
-        <v>6053</v>
+        <v>6052</v>
       </c>
       <c r="E110" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B111" s="2">
         <v>106</v>
@@ -2487,32 +2493,32 @@
         <v>265</v>
       </c>
       <c r="D111" s="1">
-        <v>6053</v>
+        <v>6052</v>
       </c>
       <c r="E111" s="2">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B112" s="2">
         <v>107</v>
       </c>
       <c r="C112" s="1">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D112" s="1">
-        <v>6054</v>
+        <v>6053</v>
       </c>
       <c r="E112" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B113" s="2">
         <v>108</v>
@@ -2521,32 +2527,32 @@
         <v>265</v>
       </c>
       <c r="D113" s="1">
-        <v>6054</v>
+        <v>6053</v>
       </c>
       <c r="E113" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B114" s="2">
         <v>109</v>
       </c>
       <c r="C114" s="1">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D114" s="1">
-        <v>6055</v>
+        <v>6054</v>
       </c>
       <c r="E114" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B115" s="2">
         <v>110</v>
@@ -2555,32 +2561,32 @@
         <v>265</v>
       </c>
       <c r="D115" s="1">
-        <v>6055</v>
+        <v>6054</v>
       </c>
       <c r="E115" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B116" s="2">
         <v>111</v>
       </c>
       <c r="C116" s="1">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D116" s="1">
-        <v>6056</v>
+        <v>6055</v>
       </c>
       <c r="E116" s="2">
-        <v>6250</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B117" s="2">
         <v>112</v>
@@ -2589,10 +2595,78 @@
         <v>265</v>
       </c>
       <c r="D117" s="1">
+        <v>6055</v>
+      </c>
+      <c r="E117" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="2">
+        <v>113</v>
+      </c>
+      <c r="C118" s="1">
+        <v>125</v>
+      </c>
+      <c r="D118" s="1">
         <v>6056</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E118" s="2">
         <v>6250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="2">
+        <v>114</v>
+      </c>
+      <c r="C119" s="1">
+        <v>265</v>
+      </c>
+      <c r="D119" s="1">
+        <v>6056</v>
+      </c>
+      <c r="E119" s="2">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B120" s="2">
+        <v>115</v>
+      </c>
+      <c r="C120" s="1">
+        <v>135</v>
+      </c>
+      <c r="D120" s="1">
+        <v>6057</v>
+      </c>
+      <c r="E120" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B121" s="2">
+        <v>116</v>
+      </c>
+      <c r="C121" s="1">
+        <v>265</v>
+      </c>
+      <c r="D121" s="1">
+        <v>6057</v>
+      </c>
+      <c r="E121" s="2">
+        <v>7500</v>
       </c>
     </row>
   </sheetData>

--- a/game_excel/heroconvert.xlsx
+++ b/game_excel/heroconvert.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
   <si>
     <t>奖励名称</t>
   </si>
@@ -56,168 +56,6 @@
   <si>
     <t>0为掉落失败的概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擎天柱</t>
-  </si>
-  <si>
-    <t>红扎古</t>
-  </si>
-  <si>
-    <t>阿利塔</t>
-  </si>
-  <si>
-    <t>高达</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>大黄蜂</t>
-  </si>
-  <si>
-    <t>吉姆改</t>
-  </si>
-  <si>
-    <t>扎古2改</t>
-  </si>
-  <si>
-    <t>强化机器人士兵</t>
-  </si>
-  <si>
-    <t>奎爷</t>
-  </si>
-  <si>
-    <t>杰洛特</t>
-  </si>
-  <si>
-    <t>林克</t>
-  </si>
-  <si>
-    <t>铁血</t>
-  </si>
-  <si>
-    <t>杰克</t>
-  </si>
-  <si>
-    <t>美杜莎</t>
-  </si>
-  <si>
-    <t>大德鲁伊</t>
-  </si>
-  <si>
-    <t>重装剑士</t>
-  </si>
-  <si>
-    <t>钢岩魔像</t>
-  </si>
-  <si>
-    <t>猴子</t>
-  </si>
-  <si>
-    <t>鸣人</t>
-  </si>
-  <si>
-    <t>熊猫</t>
-  </si>
-  <si>
-    <t>貂蝉</t>
-  </si>
-  <si>
-    <t>上气</t>
-  </si>
-  <si>
-    <t>半藏</t>
-  </si>
-  <si>
-    <t>上忍</t>
-  </si>
-  <si>
-    <t>格斗大师</t>
-  </si>
-  <si>
-    <t>秘法师</t>
-  </si>
-  <si>
-    <t>美队</t>
-  </si>
-  <si>
-    <t>钢铁侠</t>
-  </si>
-  <si>
-    <t>黑豹</t>
-  </si>
-  <si>
-    <t>海王</t>
-  </si>
-  <si>
-    <t>秘客</t>
-  </si>
-  <si>
-    <t>罗宾</t>
-  </si>
-  <si>
-    <t>绝地武士</t>
-  </si>
-  <si>
-    <t>精英瓦坎达卫队</t>
-  </si>
-  <si>
-    <t>精英神盾士兵</t>
-  </si>
-  <si>
-    <t>灭霸</t>
-  </si>
-  <si>
-    <t>洛基</t>
-  </si>
-  <si>
-    <t>死侍</t>
-  </si>
-  <si>
-    <t>小丑女</t>
-  </si>
-  <si>
-    <t>逆闪电</t>
-  </si>
-  <si>
-    <t>卢瑟</t>
-  </si>
-  <si>
-    <t>奇瑞塔队长</t>
-  </si>
-  <si>
-    <t>精锐先锋卫</t>
-  </si>
-  <si>
-    <t>精锐利爪</t>
-  </si>
-  <si>
-    <t>阿尔萨斯</t>
-  </si>
-  <si>
-    <t>骷髅王</t>
-  </si>
-  <si>
-    <t>暴君</t>
-  </si>
-  <si>
-    <t>护士</t>
-  </si>
-  <si>
-    <t>三角头</t>
-  </si>
-  <si>
-    <t>Boomer</t>
-  </si>
-  <si>
-    <t>怨灵</t>
-  </si>
-  <si>
-    <t>装甲噬魂鬼</t>
-  </si>
-  <si>
-    <t>重甲骷髅</t>
   </si>
   <si>
     <t>1-100000:道具角色固定ID
@@ -233,16 +71,352 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蜘蛛侠</t>
-  </si>
-  <si>
-    <t>毒液</t>
-  </si>
-  <si>
-    <t>地狱男爵</t>
-  </si>
-  <si>
-    <t>初音</t>
+    <t>重甲骷髅-类型分组1</t>
+  </si>
+  <si>
+    <t>重甲骷髅-阵营分组2</t>
+  </si>
+  <si>
+    <t>装甲噬魂鬼-类型分组1</t>
+  </si>
+  <si>
+    <t>装甲噬魂鬼-阵营分组2</t>
+  </si>
+  <si>
+    <t>怨灵-类型分组1</t>
+  </si>
+  <si>
+    <t>怨灵-阵营分组2</t>
+  </si>
+  <si>
+    <t>Boomer-类型分组1</t>
+  </si>
+  <si>
+    <t>Boomer-阵营分组2</t>
+  </si>
+  <si>
+    <t>三角头-类型分组1</t>
+  </si>
+  <si>
+    <t>三角头-阵营分组2</t>
+  </si>
+  <si>
+    <t>护士-类型分组1</t>
+  </si>
+  <si>
+    <t>护士-阵营分组2</t>
+  </si>
+  <si>
+    <t>暴君-类型分组1</t>
+  </si>
+  <si>
+    <t>暴君-阵营分组2</t>
+  </si>
+  <si>
+    <t>骷髅王-类型分组1</t>
+  </si>
+  <si>
+    <t>骷髅王-阵营分组2</t>
+  </si>
+  <si>
+    <t>阿尔萨斯-类型分组1</t>
+  </si>
+  <si>
+    <t>阿尔萨斯-阵营分组2</t>
+  </si>
+  <si>
+    <t>精锐利爪-类型分组1</t>
+  </si>
+  <si>
+    <t>精锐利爪-阵营分组2</t>
+  </si>
+  <si>
+    <t>精锐先锋卫-类型分组1</t>
+  </si>
+  <si>
+    <t>精锐先锋卫-阵营分组2</t>
+  </si>
+  <si>
+    <t>奇瑞塔队长-类型分组1</t>
+  </si>
+  <si>
+    <t>奇瑞塔队长-阵营分组2</t>
+  </si>
+  <si>
+    <t>卢瑟-类型分组1</t>
+  </si>
+  <si>
+    <t>卢瑟-阵营分组2</t>
+  </si>
+  <si>
+    <t>逆闪电-类型分组1</t>
+  </si>
+  <si>
+    <t>逆闪电-阵营分组2</t>
+  </si>
+  <si>
+    <t>小丑女-类型分组1</t>
+  </si>
+  <si>
+    <t>小丑女-阵营分组2</t>
+  </si>
+  <si>
+    <t>死侍-类型分组1</t>
+  </si>
+  <si>
+    <t>死侍-阵营分组2</t>
+  </si>
+  <si>
+    <t>洛基-类型分组1</t>
+  </si>
+  <si>
+    <t>洛基-阵营分组2</t>
+  </si>
+  <si>
+    <t>灭霸-类型分组1</t>
+  </si>
+  <si>
+    <t>灭霸-阵营分组2</t>
+  </si>
+  <si>
+    <t>地狱男爵-类型分组1</t>
+  </si>
+  <si>
+    <t>地狱男爵-阵营分组2</t>
+  </si>
+  <si>
+    <t>毒液-类型分组1</t>
+  </si>
+  <si>
+    <t>毒液-阵营分组2</t>
+  </si>
+  <si>
+    <t>精英神盾士兵-类型分组1</t>
+  </si>
+  <si>
+    <t>精英神盾士兵-阵营分组2</t>
+  </si>
+  <si>
+    <t>精英瓦坎达卫队-类型分组1</t>
+  </si>
+  <si>
+    <t>精英瓦坎达卫队-阵营分组2</t>
+  </si>
+  <si>
+    <t>绝地武士-类型分组1</t>
+  </si>
+  <si>
+    <t>绝地武士-阵营分组2</t>
+  </si>
+  <si>
+    <t>罗宾-类型分组1</t>
+  </si>
+  <si>
+    <t>罗宾-阵营分组2</t>
+  </si>
+  <si>
+    <t>秘客-类型分组1</t>
+  </si>
+  <si>
+    <t>秘客-阵营分组2</t>
+  </si>
+  <si>
+    <t>海王-类型分组1</t>
+  </si>
+  <si>
+    <t>海王-阵营分组2</t>
+  </si>
+  <si>
+    <t>黑豹-类型分组1</t>
+  </si>
+  <si>
+    <t>黑豹-阵营分组2</t>
+  </si>
+  <si>
+    <t>钢铁侠-类型分组1</t>
+  </si>
+  <si>
+    <t>钢铁侠-阵营分组2</t>
+  </si>
+  <si>
+    <t>美队-类型分组1</t>
+  </si>
+  <si>
+    <t>美队-阵营分组2</t>
+  </si>
+  <si>
+    <t>蜘蛛侠-类型分组1</t>
+  </si>
+  <si>
+    <t>蜘蛛侠-阵营分组2</t>
+  </si>
+  <si>
+    <t>秘法师-类型分组1</t>
+  </si>
+  <si>
+    <t>秘法师-阵营分组2</t>
+  </si>
+  <si>
+    <t>格斗大师-类型分组1</t>
+  </si>
+  <si>
+    <t>格斗大师-阵营分组2</t>
+  </si>
+  <si>
+    <t>上忍-类型分组1</t>
+  </si>
+  <si>
+    <t>上忍-阵营分组2</t>
+  </si>
+  <si>
+    <t>半藏-类型分组1</t>
+  </si>
+  <si>
+    <t>半藏-阵营分组2</t>
+  </si>
+  <si>
+    <t>上气-类型分组1</t>
+  </si>
+  <si>
+    <t>上气-阵营分组2</t>
+  </si>
+  <si>
+    <t>貂蝉-类型分组1</t>
+  </si>
+  <si>
+    <t>貂蝉-阵营分组2</t>
+  </si>
+  <si>
+    <t>熊猫-类型分组1</t>
+  </si>
+  <si>
+    <t>熊猫-阵营分组2</t>
+  </si>
+  <si>
+    <t>鸣人-类型分组1</t>
+  </si>
+  <si>
+    <t>鸣人-阵营分组2</t>
+  </si>
+  <si>
+    <t>猴子-类型分组1</t>
+  </si>
+  <si>
+    <t>猴子-阵营分组2</t>
+  </si>
+  <si>
+    <t>钢岩魔像-类型分组1</t>
+  </si>
+  <si>
+    <t>钢岩魔像-阵营分组2</t>
+  </si>
+  <si>
+    <t>重装剑士-类型分组1</t>
+  </si>
+  <si>
+    <t>重装剑士-阵营分组2</t>
+  </si>
+  <si>
+    <t>大德鲁伊-类型分组1</t>
+  </si>
+  <si>
+    <t>大德鲁伊-阵营分组2</t>
+  </si>
+  <si>
+    <t>美杜莎-类型分组1</t>
+  </si>
+  <si>
+    <t>美杜莎-阵营分组2</t>
+  </si>
+  <si>
+    <t>杰克-类型分组1</t>
+  </si>
+  <si>
+    <t>杰克-阵营分组2</t>
+  </si>
+  <si>
+    <t>铁血-类型分组1</t>
+  </si>
+  <si>
+    <t>铁血-阵营分组2</t>
+  </si>
+  <si>
+    <t>林克-类型分组1</t>
+  </si>
+  <si>
+    <t>林克-阵营分组2</t>
+  </si>
+  <si>
+    <t>杰洛特-类型分组1</t>
+  </si>
+  <si>
+    <t>杰洛特-阵营分组2</t>
+  </si>
+  <si>
+    <t>奎爷-类型分组1</t>
+  </si>
+  <si>
+    <t>奎爷-阵营分组2</t>
+  </si>
+  <si>
+    <t>强化机器人士兵-类型分组1</t>
+  </si>
+  <si>
+    <t>强化机器人士兵-阵营分组2</t>
+  </si>
+  <si>
+    <t>扎古2改-类型分组1</t>
+  </si>
+  <si>
+    <t>扎古2改-阵营分组2</t>
+  </si>
+  <si>
+    <t>吉姆改-类型分组1</t>
+  </si>
+  <si>
+    <t>吉姆改-阵营分组2</t>
+  </si>
+  <si>
+    <t>大黄蜂-类型分组1</t>
+  </si>
+  <si>
+    <t>大黄蜂-阵营分组2</t>
+  </si>
+  <si>
+    <t>2B-类型分组1</t>
+  </si>
+  <si>
+    <t>2B-阵营分组2</t>
+  </si>
+  <si>
+    <t>高达-类型分组1</t>
+  </si>
+  <si>
+    <t>高达-阵营分组2</t>
+  </si>
+  <si>
+    <t>阿利塔-类型分组1</t>
+  </si>
+  <si>
+    <t>阿利塔-阵营分组2</t>
+  </si>
+  <si>
+    <t>红扎古-类型分组1</t>
+  </si>
+  <si>
+    <t>红扎古-阵营分组2</t>
+  </si>
+  <si>
+    <t>擎天柱-类型分组1</t>
+  </si>
+  <si>
+    <t>擎天柱-阵营分组2</t>
+  </si>
+  <si>
+    <t>初音-类型分组1</t>
+  </si>
+  <si>
+    <t>初音-阵营分组2</t>
   </si>
 </sst>
 </file>
@@ -612,15 +786,15 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:B121"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="1" bestFit="1" customWidth="1"/>
@@ -635,10 +809,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -691,7 +865,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -699,7 +873,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -716,7 +890,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -733,7 +907,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
@@ -750,7 +924,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
@@ -767,7 +941,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>5</v>
@@ -784,7 +958,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
@@ -801,7 +975,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
@@ -818,7 +992,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>8</v>
@@ -835,7 +1009,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2">
         <v>9</v>
@@ -852,7 +1026,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
         <v>10</v>
@@ -869,7 +1043,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
         <v>11</v>
@@ -886,7 +1060,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
         <v>12</v>
@@ -903,7 +1077,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
         <v>13</v>
@@ -920,7 +1094,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2">
         <v>14</v>
@@ -937,7 +1111,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2">
         <v>15</v>
@@ -954,7 +1128,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2">
         <v>16</v>
@@ -971,7 +1145,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2">
         <v>17</v>
@@ -988,7 +1162,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2">
         <v>18</v>
@@ -1005,7 +1179,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2">
         <v>19</v>
@@ -1022,7 +1196,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2">
         <v>20</v>
@@ -1039,7 +1213,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2">
         <v>21</v>
@@ -1056,7 +1230,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2">
         <v>22</v>
@@ -1073,7 +1247,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
         <v>23</v>
@@ -1090,7 +1264,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
         <v>24</v>
@@ -1107,7 +1281,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2">
         <v>25</v>
@@ -1124,7 +1298,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2">
         <v>26</v>
@@ -1141,7 +1315,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2">
         <v>27</v>
@@ -1158,7 +1332,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2">
         <v>28</v>
@@ -1175,7 +1349,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2">
         <v>29</v>
@@ -1192,7 +1366,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2">
         <v>30</v>
@@ -1209,7 +1383,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2">
         <v>31</v>
@@ -1226,7 +1400,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2">
         <v>32</v>
@@ -1243,7 +1417,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2">
         <v>33</v>
@@ -1260,7 +1434,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2">
         <v>34</v>
@@ -1277,7 +1451,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2">
         <v>35</v>
@@ -1294,7 +1468,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2">
         <v>36</v>
@@ -1311,7 +1485,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2">
         <v>37</v>
@@ -1328,7 +1502,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2">
         <v>38</v>
@@ -1345,7 +1519,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2">
         <v>39</v>
@@ -1362,7 +1536,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2">
         <v>40</v>
@@ -1379,7 +1553,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2">
         <v>41</v>
@@ -1396,7 +1570,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2">
         <v>42</v>
@@ -1413,7 +1587,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B48" s="2">
         <v>43</v>
@@ -1430,7 +1604,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B49" s="2">
         <v>44</v>
@@ -1447,7 +1621,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B50" s="2">
         <v>45</v>
@@ -1464,7 +1638,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2">
         <v>46</v>
@@ -1481,7 +1655,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2">
         <v>47</v>
@@ -1498,7 +1672,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2">
         <v>48</v>
@@ -1515,7 +1689,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B54" s="2">
         <v>49</v>
@@ -1532,7 +1706,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B55" s="2">
         <v>50</v>
@@ -1549,7 +1723,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B56" s="2">
         <v>51</v>
@@ -1566,7 +1740,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B57" s="2">
         <v>52</v>
@@ -1583,7 +1757,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B58" s="2">
         <v>53</v>
@@ -1600,7 +1774,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B59" s="2">
         <v>54</v>
@@ -1617,7 +1791,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B60" s="2">
         <v>55</v>
@@ -1634,7 +1808,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B61" s="2">
         <v>56</v>
@@ -1651,7 +1825,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B62" s="2">
         <v>57</v>
@@ -1668,7 +1842,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2">
         <v>58</v>
@@ -1685,7 +1859,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2">
         <v>59</v>
@@ -1702,7 +1876,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65" s="2">
         <v>60</v>
@@ -1719,7 +1893,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2">
         <v>61</v>
@@ -1736,7 +1910,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2">
         <v>62</v>
@@ -1753,7 +1927,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2">
         <v>63</v>
@@ -1770,7 +1944,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2">
         <v>64</v>
@@ -1787,7 +1961,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B70" s="2">
         <v>65</v>
@@ -1804,7 +1978,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B71" s="2">
         <v>66</v>
@@ -1821,7 +1995,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B72" s="2">
         <v>67</v>
@@ -1838,7 +2012,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B73" s="2">
         <v>68</v>
@@ -1855,7 +2029,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2">
         <v>69</v>
@@ -1872,7 +2046,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B75" s="2">
         <v>70</v>
@@ -1889,7 +2063,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2">
         <v>71</v>
@@ -1906,7 +2080,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2">
         <v>72</v>
@@ -1923,7 +2097,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2">
         <v>73</v>
@@ -1940,7 +2114,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2">
         <v>74</v>
@@ -1957,7 +2131,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2">
         <v>75</v>
@@ -1974,7 +2148,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2">
         <v>76</v>
@@ -1991,7 +2165,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2">
         <v>77</v>
@@ -2008,7 +2182,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2">
         <v>78</v>
@@ -2025,7 +2199,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2">
         <v>79</v>
@@ -2042,7 +2216,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2">
         <v>80</v>
@@ -2059,7 +2233,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2">
         <v>81</v>
@@ -2076,7 +2250,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2">
         <v>82</v>
@@ -2093,7 +2267,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2">
         <v>83</v>
@@ -2110,7 +2284,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2">
         <v>84</v>
@@ -2127,7 +2301,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2">
         <v>85</v>
@@ -2144,7 +2318,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2">
         <v>86</v>
@@ -2161,7 +2335,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2">
         <v>87</v>
@@ -2178,7 +2352,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2">
         <v>88</v>
@@ -2195,7 +2369,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2">
         <v>89</v>
@@ -2212,7 +2386,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2">
         <v>90</v>
@@ -2229,7 +2403,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2">
         <v>91</v>
@@ -2246,7 +2420,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2">
         <v>92</v>
@@ -2263,7 +2437,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2">
         <v>93</v>
@@ -2280,7 +2454,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2">
         <v>94</v>
@@ -2297,7 +2471,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2">
         <v>95</v>
@@ -2314,7 +2488,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2">
         <v>96</v>
@@ -2331,7 +2505,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2">
         <v>97</v>
@@ -2348,7 +2522,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2">
         <v>98</v>
@@ -2365,7 +2539,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2">
         <v>99</v>
@@ -2382,7 +2556,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2">
         <v>100</v>
@@ -2399,7 +2573,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2">
         <v>101</v>
@@ -2416,7 +2590,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2">
         <v>102</v>
@@ -2433,7 +2607,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="B108" s="2">
         <v>103</v>
@@ -2450,7 +2624,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2">
         <v>104</v>
@@ -2467,7 +2641,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2">
         <v>105</v>
@@ -2484,7 +2658,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2">
         <v>106</v>
@@ -2501,7 +2675,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2">
         <v>107</v>
@@ -2518,7 +2692,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2">
         <v>108</v>
@@ -2535,7 +2709,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2">
         <v>109</v>
@@ -2552,7 +2726,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2">
         <v>110</v>
@@ -2569,7 +2743,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2">
         <v>111</v>
@@ -2586,7 +2760,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2">
         <v>112</v>
@@ -2603,7 +2777,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="B118" s="2">
         <v>113</v>
@@ -2620,7 +2794,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="B119" s="2">
         <v>114</v>
@@ -2637,7 +2811,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2">
         <v>115</v>
@@ -2654,7 +2828,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2">
         <v>116</v>
